--- a/data/trans_camb/P25_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,64</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>178,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>163,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 3,72</t>
+          <t>-11,04; 7,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 2,05</t>
+          <t>-11,77; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,85</t>
+          <t>-12,09; 6,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,55</t>
+          <t>-5,48; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,98</t>
+          <t>-3,55; 5,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,43</t>
+          <t>-3,56; 6,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 3,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 4,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 3,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,89%</t>
+          <t>-31,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,76%</t>
+          <t>-36,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>-35,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,37%</t>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-25,46%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-24,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-21,36%</t>
         </is>
       </c>
     </row>
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,48; 366,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,95; 250,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 339,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 533,65</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 8,89</t>
+          <t>-1,5; 12,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,54</t>
+          <t>-1,77; 8,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,22</t>
+          <t>-0,19; 12,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,13</t>
+          <t>-4,92; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,57</t>
+          <t>-6,13; 1,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,13</t>
+          <t>-0,7; 18,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 4,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 15,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>248,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>178,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>313,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-33,65%</t>
+          <t>-46,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>-53,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>272,42%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>282,58%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 465,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 413,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 233,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 203,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 5,22</t>
+          <t>-17,24; 8,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 9,67</t>
+          <t>-12,71; 13,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 4,74</t>
+          <t>-12,8; 12,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,85</t>
+          <t>-15,21; 4,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 1,93</t>
+          <t>-9,84; 11,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 6,61</t>
+          <t>-8,85; 12,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,01; 2,5</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 8,46</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 8,31</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,09%</t>
+          <t>-24,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,21%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,05%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-27,18%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 35,7</t>
+          <t>-65,79; 62,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 70,83</t>
+          <t>-49,72; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 41,69</t>
+          <t>-48,86; 93,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 78,63</t>
+          <t>-65,26; 39,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 14,41</t>
+          <t>-43,13; 86,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 47,47</t>
+          <t>-38,07; 87,85</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-55,37; 18,72</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-35,23; 55,19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-34,57; 55,99</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>9,33</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-7,28</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 6,0</t>
+          <t>-25,56; 7,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 16,4</t>
+          <t>-16,74; 16,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 8,21</t>
+          <t>-14,84; 19,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 16,02</t>
+          <t>-21,83; 14,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 3,53</t>
+          <t>-19,22; 16,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 11,5</t>
+          <t>-10,33; 27,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 4,72</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 12,34</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 18,16</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>-27,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>30,1%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-21,6%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 17,41</t>
+          <t>-58,24; 29,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 50,4</t>
+          <t>-38,48; 60,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 36,92</t>
+          <t>-34,83; 77,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 71,82</t>
+          <t>-52,44; 72,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 11,09</t>
+          <t>-47,64; 83,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 37,0</t>
+          <t>-25,4; 129,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,02; 17,62</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-34,44; 41,66</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-20,64; 65,64</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-17,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-10,38</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>-17,41</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-10,03</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 14,07</t>
+          <t>-23,07; 21,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 22,3</t>
+          <t>-10,03; 32,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-35,15; -2,59</t>
+          <t>-19,93; 24,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 22,03</t>
+          <t>-33,4; 10,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 2,5</t>
+          <t>-25,38; 19,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 19,77</t>
+          <t>-43,19; 3,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-20,36; 11,31</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 19,75</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-27,5; 5,44</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>-17,19%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>-29,38%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-9,82%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-17,63%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 33,49</t>
+          <t>-33,87; 51,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 53,08</t>
+          <t>-14,78; 78,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-50,55; -4,74</t>
+          <t>-32,18; 56,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 40,44</t>
+          <t>-47,31; 22,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 3,34</t>
+          <t>-37,32; 39,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 36,42</t>
+          <t>-62,6; 6,98</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-31,61; 23,52</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 40,83</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-42,73; 10,34</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 1,52</t>
+          <t>-8,9; 3,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,12</t>
+          <t>-5,45; 6,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,16</t>
+          <t>-6,0; 7,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 10,44</t>
+          <t>-7,96; 1,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,02</t>
+          <t>-6,61; 4,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,96</t>
+          <t>-3,02; 8,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 0,65</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,42</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 5,13</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>-15,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-16,91%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 9,26</t>
+          <t>-41,71; 23,37</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 25,89</t>
+          <t>-26,31; 42,59</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 7,88</t>
+          <t>-28,45; 48,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 64,56</t>
+          <t>-41,28; 14,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -0,07</t>
+          <t>-33,84; 34,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 28,32</t>
+          <t>-17,31; 63,07</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-34,7; 4,93</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 22,04</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
